--- a/nriss-update-workflow-release/ig/ValueSet-sas-sos-valueset-participant-status.xlsx
+++ b/nriss-update-workflow-release/ig/ValueSet-sas-sos-valueset-participant-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-05T14:34:50+00:00</t>
+    <t>2024-09-05T14:36:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
